--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2205_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2205_NhatQuang.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Lock: 112.078.011.007,16833</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180405</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1231,9 @@
       <c r="B6" s="54">
         <v>44713</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44716</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1274,7 +1288,9 @@
       <c r="B7" s="54">
         <v>44713</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44716</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -3321,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3537,7 +3553,9 @@
       <c r="B6" s="54">
         <v>44713</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44716</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -3561,7 +3579,9 @@
       <c r="L6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>73</v>
@@ -3592,7 +3612,9 @@
       <c r="B7" s="54">
         <v>44713</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44716</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>65</v>
       </c>
@@ -3614,7 +3636,9 @@
       <c r="L7" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
         <v>73</v>
@@ -3643,7 +3667,9 @@
       <c r="B8" s="54">
         <v>44714</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44716</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>65</v>
       </c>
@@ -3655,16 +3681,30 @@
         <v>64</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>78</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
       <c r="U8" s="70"/>
@@ -3680,7 +3720,9 @@
       <c r="B9" s="54">
         <v>44714</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44716</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>65</v>
       </c>
@@ -3692,16 +3734,32 @@
         <v>64</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
       <c r="U9" s="70"/>
@@ -4027,7 +4085,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4496,7 +4554,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4560,7 +4618,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5653,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5869,7 +5927,9 @@
       <c r="B6" s="54">
         <v>44713</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44716</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -5881,16 +5941,30 @@
         <v>64</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="51" t="s">
+        <v>69</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="K6" s="55" t="s">
+        <v>82</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
       <c r="U6" s="69" t="s">
@@ -6305,7 +6379,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6806,7 +6880,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6838,7 +6912,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
